--- a/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Documents/Studium/Informatik/6.Semester/SoftwareEngineering/g6t1/documents/zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C84B770C-B4A7-1446-A086-A2F707E6D42C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7B9377-A227-7D4A-B72F-99B4F4670E1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="27480" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -511,7 +511,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -566,7 +566,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B4" s="7">
         <v>4.1666666666666664E-2</v>
@@ -591,8 +591,15 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="8">
+        <v>43905</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">

--- a/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Documents/Studium/Informatik/6.Semester/SoftwareEngineering/g6t1/documents/zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7B9377-A227-7D4A-B72F-99B4F4670E1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E5EDDC-50C0-4646-99B5-121D387F7FE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="27480" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -511,7 +511,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -603,13 +603,27 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="8">
+        <v>43907</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="8">
+        <v>43908</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">

--- a/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Documents/Studium/Informatik/6.Semester/SoftwareEngineering/g6t1/documents/zeitaufzeichnung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Documents/Studium/Informatik/6.Semester/SoftwareEngineering/git/g6t1/documents/zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E5EDDC-50C0-4646-99B5-121D387F7FE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A4B7FB-592F-3C46-9881-ECE9A3513941}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="27480" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>Teambesprechung</t>
+  </si>
+  <si>
+    <t>Workshop Rest</t>
+  </si>
+  <si>
+    <t>Rest Client Authorization</t>
+  </si>
+  <si>
+    <t>Basic Rest Client</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Authorization</t>
   </si>
 </sst>
 </file>
@@ -505,13 +520,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1001"/>
+  <dimension ref="A1:D1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -595,31 +610,35 @@
         <v>43905</v>
       </c>
       <c r="B6" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B7" s="7">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B8" s="7">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -627,39 +646,100 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="8">
+        <v>43908</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="8">
+        <v>43915</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="8">
+        <v>43920</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="8">
+        <v>43922</v>
+      </c>
+      <c r="B12" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="8">
+        <v>43923</v>
+      </c>
+      <c r="B13" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="8">
+        <v>43929</v>
+      </c>
+      <c r="B14" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="8">
+        <v>43931</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8"/>
@@ -5587,7 +5667,22 @@
       <c r="D1000" s="3"/>
     </row>
     <row r="1001" spans="1:4">
-      <c r="A1001" s="2"/>
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="7"/>
+      <c r="D1001" s="3"/>
+    </row>
+    <row r="1002" spans="1:4">
+      <c r="A1002" s="8"/>
+      <c r="B1002" s="7"/>
+      <c r="D1002" s="3"/>
+    </row>
+    <row r="1003" spans="1:4">
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="7"/>
+      <c r="D1003" s="3"/>
+    </row>
+    <row r="1004" spans="1:4">
+      <c r="A1004" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5599,7 +5694,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1000</xm:sqref>
+          <xm:sqref>C2:C1003</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Documents/Studium/Informatik/6.Semester/SoftwareEngineering/git/g6t1/documents/zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A4B7FB-592F-3C46-9881-ECE9A3513941}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D56492-C64B-A346-848C-06304A9EA16D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="27480" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="27480" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -112,6 +121,15 @@
   </si>
   <si>
     <t>Authorization</t>
+  </si>
+  <si>
+    <t>Rest Client Pi</t>
+  </si>
+  <si>
+    <t>Rest Client PI / retrieve Keys</t>
+  </si>
+  <si>
+    <t>Game Creation Frontend/Controller/Service</t>
   </si>
 </sst>
 </file>
@@ -520,13 +538,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1004"/>
+  <dimension ref="A1:J1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -537,7 +555,7 @@
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="35">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -551,7 +569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:10">
       <c r="A2" s="8">
         <v>43891</v>
       </c>
@@ -565,7 +583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:10">
       <c r="A3" s="8">
         <v>43898</v>
       </c>
@@ -579,7 +597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:10">
       <c r="A4" s="8">
         <v>43901</v>
       </c>
@@ -593,7 +611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:10">
       <c r="A5" s="8">
         <v>43903</v>
       </c>
@@ -605,7 +623,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:10">
       <c r="A6" s="8">
         <v>43905</v>
       </c>
@@ -619,7 +637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:10">
       <c r="A7" s="8">
         <v>43905</v>
       </c>
@@ -632,8 +650,9 @@
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="8">
         <v>43907</v>
       </c>
@@ -645,7 +664,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:10">
       <c r="A9" s="8">
         <v>43908</v>
       </c>
@@ -657,7 +676,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:10">
       <c r="A10" s="8">
         <v>43915</v>
       </c>
@@ -671,7 +690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:10">
       <c r="A11" s="8">
         <v>43920</v>
       </c>
@@ -685,7 +704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:10">
       <c r="A12" s="8">
         <v>43922</v>
       </c>
@@ -699,7 +718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:10">
       <c r="A13" s="8">
         <v>43923</v>
       </c>
@@ -713,7 +732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:10">
       <c r="A14" s="8">
         <v>43929</v>
       </c>
@@ -727,7 +746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:10">
       <c r="A15" s="8">
         <v>43931</v>
       </c>
@@ -741,40 +760,101 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="D16" s="3"/>
+    <row r="16" spans="1:10">
+      <c r="A16" s="8">
+        <v>44297</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B17" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="8">
+        <v>44362</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="8">
+        <v>44363</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="8">
+        <v>44303</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="8">
+        <v>44306</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="8">
+        <v>44307</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8"/>

--- a/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Documents/Studium/Informatik/6.Semester/SoftwareEngineering/git/g6t1/documents/zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D56492-C64B-A346-848C-06304A9EA16D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E10464D-39BA-E84D-AFC7-7A898AFEDD1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="27480" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="19700" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -131,6 +131,12 @@
   <si>
     <t>Game Creation Frontend/Controller/Service</t>
   </si>
+  <si>
+    <t>Game Creation / Team Creation / Player Assignment</t>
+  </si>
+  <si>
+    <t>Game Creation / Team Creation</t>
+  </si>
 </sst>
 </file>
 
@@ -210,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -224,6 +230,7 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:J1004"/>
+  <dimension ref="A1:J1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -857,24 +864,60 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="8">
+        <v>44308</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="8">
+        <v>44309</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="8">
+        <v>44310</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="8">
+        <v>44311</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8"/>
@@ -5762,7 +5805,12 @@
       <c r="D1003" s="3"/>
     </row>
     <row r="1004" spans="1:4">
-      <c r="A1004" s="2"/>
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="7"/>
+      <c r="D1004" s="3"/>
+    </row>
+    <row r="1005" spans="1:4">
+      <c r="A1005" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5774,7 +5822,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1003</xm:sqref>
+          <xm:sqref>C2:C1004</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Documents/Studium/Informatik/6.Semester/SoftwareEngineering/git/g6t1/documents/zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E10464D-39BA-E84D-AFC7-7A898AFEDD1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7E7446-3D14-624C-836C-F404C1D55801}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="19700" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="27480" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>Game Creation / Team Creation</t>
+  </si>
+  <si>
+    <t>Gameplay Frontend</t>
+  </si>
+  <si>
+    <t>Websockets</t>
+  </si>
+  <si>
+    <t>Websockets Gameplay Preperation</t>
+  </si>
+  <si>
+    <t>Websockets Gameplay / Gameroom</t>
   </si>
 </sst>
 </file>
@@ -551,7 +563,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -920,64 +932,170 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="8">
+        <v>44312</v>
+      </c>
+      <c r="B27" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="8">
+        <v>44314</v>
+      </c>
+      <c r="B28" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="8">
+        <v>44314</v>
+      </c>
+      <c r="B29" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="8">
+        <v>44317</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B32" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B33" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="8">
+        <v>44321</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B38" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8"/>

--- a/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Documents/Studium/Informatik/6.Semester/SoftwareEngineering/git/g6t1/documents/zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7E7446-3D14-624C-836C-F404C1D55801}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AA4366-F08B-4440-92E3-CA32F4C03EDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="27480" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>Game Creation / Team Creation</t>
   </si>
   <si>
-    <t>Gameplay Frontend</t>
-  </si>
-  <si>
     <t>Websockets</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Websockets Gameplay / Gameroom</t>
+  </si>
+  <si>
+    <t>User Statistics Frontend</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -968,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -982,7 +982,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -990,13 +990,13 @@
         <v>44317</v>
       </c>
       <c r="B31" s="7">
-        <v>0.2986111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1010,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1038,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>44324</v>
       </c>
       <c r="B36" s="7">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1080,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:4">

--- a/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Documents/Studium/Informatik/6.Semester/SoftwareEngineering/git/g6t1/documents/zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AA4366-F08B-4440-92E3-CA32F4C03EDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C10C62E-E148-7449-881B-EF3E5F6BF471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="27480" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -149,13 +149,29 @@
   <si>
     <t>User Statistics Frontend</t>
   </si>
+  <si>
+    <t>Game room updates/ bugfix</t>
+  </si>
+  <si>
+    <t>End game logic / bug fix</t>
+  </si>
+  <si>
+    <t>Bug Fixing</t>
+  </si>
+  <si>
+    <t>Testdrehbuch</t>
+  </si>
+  <si>
+    <t>Switch to MYSQL and Docker</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -228,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -243,6 +259,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +580,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -793,7 +810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:9">
       <c r="A17" s="8">
         <v>44298</v>
       </c>
@@ -805,7 +822,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:9">
       <c r="A18" s="8">
         <v>44362</v>
       </c>
@@ -819,7 +836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:9">
       <c r="A19" s="8">
         <v>44363</v>
       </c>
@@ -833,7 +850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:9">
       <c r="A20" s="8">
         <v>44303</v>
       </c>
@@ -846,8 +863,9 @@
       <c r="D20" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="8">
         <v>44306</v>
       </c>
@@ -861,7 +879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:9">
       <c r="A22" s="8">
         <v>44307</v>
       </c>
@@ -875,7 +893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:9">
       <c r="A23" s="8">
         <v>44308</v>
       </c>
@@ -889,7 +907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:9">
       <c r="A24" s="8">
         <v>44309</v>
       </c>
@@ -903,7 +921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:9">
       <c r="A25" s="8">
         <v>44310</v>
       </c>
@@ -917,7 +935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:9">
       <c r="A26" s="8">
         <v>44311</v>
       </c>
@@ -931,7 +949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:9">
       <c r="A27" s="8">
         <v>44312</v>
       </c>
@@ -943,7 +961,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:9">
       <c r="A28" s="8">
         <v>44314</v>
       </c>
@@ -957,7 +975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:9">
       <c r="A29" s="8">
         <v>44314</v>
       </c>
@@ -971,7 +989,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:9">
       <c r="A30" s="8">
         <v>44316</v>
       </c>
@@ -985,7 +1003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:9">
       <c r="A31" s="8">
         <v>44317</v>
       </c>
@@ -999,7 +1017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:9">
       <c r="A32" s="8">
         <v>44318</v>
       </c>
@@ -1098,34 +1116,88 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="8">
+        <v>44328</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="8">
+        <v>44329</v>
+      </c>
+      <c r="B42" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="8">
+        <v>44329</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="8">
+        <v>44329</v>
+      </c>
+      <c r="B44" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8"/>

--- a/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Documents/Studium/Informatik/6.Semester/SoftwareEngineering/git/g6t1/documents/zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C10C62E-E148-7449-881B-EF3E5F6BF471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B4BBDE-A13C-8C46-B0A4-C7B275374B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="27480" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1200,19 +1200,42 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="8">
+        <v>44334</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="8">
+        <v>44336</v>
+      </c>
+      <c r="B46" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="8">
+        <v>44341</v>
+      </c>
+      <c r="B47" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8"/>

--- a/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Documents/Studium/Informatik/6.Semester/SoftwareEngineering/git/g6t1/documents/zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B4BBDE-A13C-8C46-B0A4-C7B275374B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B89B406-AC04-4C4F-BA35-13A97440B141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="27500" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>Switch to MYSQL and Docker</t>
+  </si>
+  <si>
+    <t>Bugfixing</t>
+  </si>
+  <si>
+    <t>Design Updates</t>
+  </si>
+  <si>
+    <t>Design Updates Überarbeitunngen und fixes</t>
   </si>
 </sst>
 </file>
@@ -574,13 +583,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:J1005"/>
+  <dimension ref="A1:J1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1238,48 +1247,125 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="8">
+        <v>44347</v>
+      </c>
+      <c r="B48" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="8">
+        <v>44348</v>
+      </c>
+      <c r="B49" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="8">
+        <v>44349</v>
+      </c>
+      <c r="B50" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="8">
+        <v>44354</v>
+      </c>
+      <c r="B51" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="8">
+        <v>44356</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="8">
+        <v>44357</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="8">
+        <v>44359</v>
+      </c>
+      <c r="B54" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="8">
+        <v>44363</v>
+      </c>
+      <c r="B55" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B56" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4">
@@ -6023,7 +6109,17 @@
       <c r="D1004" s="3"/>
     </row>
     <row r="1005" spans="1:4">
-      <c r="A1005" s="2"/>
+      <c r="A1005" s="8"/>
+      <c r="B1005" s="7"/>
+      <c r="D1005" s="3"/>
+    </row>
+    <row r="1006" spans="1:4">
+      <c r="A1006" s="8"/>
+      <c r="B1006" s="7"/>
+      <c r="D1006" s="3"/>
+    </row>
+    <row r="1007" spans="1:4">
+      <c r="A1007" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6035,7 +6131,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1004</xm:sqref>
+          <xm:sqref>C2:C1006</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/maximilian_heine-Zeitaufzeichnung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Documents/Studium/Informatik/6.Semester/SoftwareEngineering/git/g6t1/documents/zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B89B406-AC04-4C4F-BA35-13A97440B141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A1455-9256-FC45-BD00-925B241EAE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="27500" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
   <si>
     <t>Datum</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>Design Updates Überarbeitunngen und fixes</t>
+  </si>
+  <si>
+    <t>Docker Compose</t>
+  </si>
+  <si>
+    <t>REST Dokumentatiion</t>
+  </si>
+  <si>
+    <t>Final Dockeritzation</t>
   </si>
 </sst>
 </file>
@@ -583,13 +592,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:J1007"/>
+  <dimension ref="A1:L1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1040,7 +1049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:12">
       <c r="A33" s="8">
         <v>44318</v>
       </c>
@@ -1053,8 +1062,9 @@
       <c r="D33" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="8">
         <v>44321</v>
       </c>
@@ -1068,7 +1078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:12">
       <c r="A35" s="8">
         <v>44323</v>
       </c>
@@ -1082,7 +1092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:12">
       <c r="A36" s="8">
         <v>44324</v>
       </c>
@@ -1096,7 +1106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:12">
       <c r="A37" s="8">
         <v>44325</v>
       </c>
@@ -1110,7 +1120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:12">
       <c r="A38" s="8">
         <v>44325</v>
       </c>
@@ -1124,7 +1134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:12">
       <c r="A39" s="8">
         <v>44326</v>
       </c>
@@ -1138,7 +1148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:12">
       <c r="A40" s="8">
         <v>44327</v>
       </c>
@@ -1152,7 +1162,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:12">
       <c r="A41" s="8">
         <v>44328</v>
       </c>
@@ -1166,7 +1176,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:12">
       <c r="A42" s="8">
         <v>44329</v>
       </c>
@@ -1180,7 +1190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:12">
       <c r="A43" s="8">
         <v>44329</v>
       </c>
@@ -1194,7 +1204,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:12">
       <c r="A44" s="8">
         <v>44329</v>
       </c>
@@ -1208,7 +1218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:12">
       <c r="A45" s="8">
         <v>44334</v>
       </c>
@@ -1220,7 +1230,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:12">
       <c r="A46" s="8">
         <v>44336</v>
       </c>
@@ -1232,7 +1242,7 @@
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:12">
       <c r="A47" s="8">
         <v>44341</v>
       </c>
@@ -1246,7 +1256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:12">
       <c r="A48" s="8">
         <v>44347</v>
       </c>
@@ -1369,24 +1379,60 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B57" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B58" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="8">
+        <v>44365</v>
+      </c>
+      <c r="B59" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="8">
+        <v>44365</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="8"/>
